--- a/team_specific_matrix/Defiance_B.xlsx
+++ b/team_specific_matrix/Defiance_B.xlsx
@@ -498,50 +498,50 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.2045454545454546</v>
+      </c>
+      <c r="C2">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>0.1363636363636364</v>
       </c>
-      <c r="C2">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0.09090909090909091</v>
-      </c>
       <c r="Q2">
         <v>0</v>
       </c>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.04545454545454546</v>
+        <v>0.06818181818181818</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06666666666666667</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06666666666666667</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2666666666666667</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="R6">
-        <v>0.1333333333333333</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="S6">
-        <v>0.06666666666666667</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,13 +852,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.25</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08333333333333333</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08333333333333333</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R8">
-        <v>0.1666666666666667</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S8">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2222222222222222</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05555555555555555</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="R9">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="S9">
         <v>0.1666666666666667</v>
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09016393442622951</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04918032786885246</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08196721311475409</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1557377049180328</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02459016393442623</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2049180327868853</v>
+        <v>0.2473118279569892</v>
       </c>
       <c r="R10">
-        <v>0.1065573770491803</v>
+        <v>0.09139784946236559</v>
       </c>
       <c r="S10">
-        <v>0.2868852459016393</v>
+        <v>0.2688172043010753</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K11">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L11">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.04545454545454546</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="I15">
-        <v>0.04545454545454546</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="J15">
-        <v>0.5909090909090909</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="K15">
-        <v>0.04545454545454546</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09090909090909091</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1818181818181818</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1</v>
+        <v>0.0625</v>
       </c>
       <c r="I16">
-        <v>0.15</v>
+        <v>0.09375</v>
       </c>
       <c r="J16">
-        <v>0.45</v>
+        <v>0.5625</v>
       </c>
       <c r="K16">
-        <v>0.05</v>
+        <v>0.0625</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05</v>
+        <v>0.09375</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1111111111111111</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="I17">
-        <v>0.08333333333333333</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="J17">
-        <v>0.6111111111111112</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="K17">
-        <v>0.05555555555555555</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05555555555555555</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08333333333333333</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05263157894736842</v>
+        <v>0.04</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.05263157894736842</v>
+        <v>0.08</v>
       </c>
       <c r="I18">
-        <v>0.1052631578947368</v>
+        <v>0.08</v>
       </c>
       <c r="J18">
-        <v>0.631578947368421</v>
+        <v>0.64</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1052631578947368</v>
+        <v>0.08</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05263157894736842</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.015625</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.046875</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="I19">
-        <v>0.140625</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="J19">
-        <v>0.515625</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="K19">
-        <v>0.0625</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.015625</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.140625</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0625</v>
+        <v>0.07368421052631578</v>
       </c>
     </row>
   </sheetData>
